--- a/out.xlsx
+++ b/out.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="128">
   <si>
     <t>NAME</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>31=31+ SECS. WAITING</t>
+  </si>
+  <si>
+    <t>learningJob2</t>
   </si>
 </sst>
 </file>
@@ -981,6 +984,275 @@
         <v>126</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" t="s">
+        <v>105</v>
+      </c>
+      <c r="V3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/out.xlsx
+++ b/out.xlsx
@@ -12,269 +12,530 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
+  <si>
+    <t>Job name</t>
+  </si>
   <si>
     <t>NAME</t>
   </si>
   <si>
+    <t>Job description</t>
+  </si>
+  <si>
     <t>JLABEL</t>
   </si>
   <si>
+    <t>Earliest start time</t>
+  </si>
+  <si>
     <t>STARTTIME</t>
   </si>
   <si>
+    <t>Latest stop time</t>
+  </si>
+  <si>
     <t>STOPTIME</t>
   </si>
   <si>
+    <t>Line type(s) for use on job</t>
+  </si>
+  <si>
     <t>PORTS</t>
   </si>
   <si>
+    <t>Calling party number (ANI)</t>
+  </si>
+  <si>
     <t>ANI</t>
   </si>
   <si>
+    <t>Calling party number (ANI) by record</t>
+  </si>
+  <si>
     <t>ANI_FIELD</t>
   </si>
   <si>
+    <t>Percentage complete of job to trigger callsel of link job</t>
+  </si>
+  <si>
     <t>AUTOCALLSEL_TRIGGER</t>
   </si>
   <si>
+    <t>Required Unit ID for agent login</t>
+  </si>
+  <si>
     <t>LOGONUNIT</t>
   </si>
   <si>
+    <t>Tagged trunk-to- trunk transfer data</t>
+  </si>
+  <si>
     <t>TRANSID</t>
   </si>
   <si>
+    <t>Transaction completion code</t>
+  </si>
+  <si>
     <t>TRANSTAT</t>
   </si>
   <si>
+    <t>Call Pacing method</t>
+  </si>
+  <si>
     <t>CPMETHOD</t>
   </si>
   <si>
+    <t>Initial hit rate</t>
+  </si>
+  <si>
     <t>HITRATE</t>
   </si>
   <si>
+    <t>Expert calling ratio (intelligent dialing mode)</t>
+  </si>
+  <si>
     <t>IDMODE</t>
   </si>
   <si>
+    <t>Minimum hit rate</t>
+  </si>
+  <si>
     <t>MINHITRATE</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced Cell Phone Detection </t>
+  </si>
+  <si>
     <t>ECPA</t>
   </si>
   <si>
+    <t>Outbound calling list</t>
+  </si>
+  <si>
     <t>LIST</t>
   </si>
   <si>
+    <t>Record selection file name</t>
+  </si>
+  <si>
     <t>SELECT</t>
   </si>
   <si>
+    <t>Do Not Call group name</t>
+  </si>
+  <si>
     <t>DNC_GROUP</t>
   </si>
   <si>
+    <t>Agent keys definition file name</t>
+  </si>
+  <si>
     <t>OKEYS</t>
   </si>
   <si>
+    <t>Outbound screen(s)</t>
+  </si>
+  <si>
     <t>SCREEN</t>
   </si>
   <si>
+    <t>Name of inbound job to transfer calls to</t>
+  </si>
+  <si>
     <t>TRANSFER_TO_JOB</t>
   </si>
   <si>
+    <t>Allow IVR agents on job</t>
+  </si>
+  <si>
     <t>IVR_AGENTS</t>
   </si>
   <si>
+    <t>IVR identifier</t>
+  </si>
+  <si>
     <t>IVR_ID</t>
   </si>
   <si>
+    <t>Initial script to run on the IVR</t>
+  </si>
+  <si>
     <t>IVR_INITSCRIPT</t>
   </si>
   <si>
+    <t>Script to run on the IVR</t>
+  </si>
+  <si>
     <t>IVR_SCRIPT</t>
   </si>
   <si>
+    <t>Transaction verification job</t>
+  </si>
+  <si>
     <t>TRANJOB</t>
   </si>
   <si>
+    <t>Run job without agents</t>
+  </si>
+  <si>
     <t>VIRTUAL</t>
   </si>
   <si>
+    <t>Run job with OFCOM</t>
+  </si>
+  <si>
     <t>OFCOM</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>OFCOM_METHOD</t>
   </si>
   <si>
+    <t>Run job with FCC</t>
+  </si>
+  <si>
     <t>FCC</t>
   </si>
   <si>
+    <t>Script label to use for making call</t>
+  </si>
+  <si>
     <t>RUNCALL</t>
   </si>
   <si>
+    <t>Main data processing label</t>
+  </si>
+  <si>
     <t>DATAPROCESS</t>
   </si>
   <si>
+    <t>Managed (preview) dialing</t>
+  </si>
+  <si>
     <t>PVDIAL</t>
   </si>
   <si>
+    <t>Allow agents to cancel call in preview mode</t>
+  </si>
+  <si>
     <t>PVCANCEL</t>
   </si>
   <si>
+    <t>Display empty record at preview</t>
+  </si>
+  <si>
     <t>PVEMPTYREC</t>
   </si>
   <si>
+    <t>Allow dialing from deleted record</t>
+  </si>
+  <si>
     <t>PVIGNOREDEL</t>
   </si>
   <si>
+    <t>Key field for LIS record search</t>
+  </si>
+  <si>
     <t>PVKEYFLD</t>
   </si>
   <si>
+    <t>Time limit (seconds) for preview</t>
+  </si>
+  <si>
     <t>PVLENGTH</t>
   </si>
   <si>
+    <t>Method for record search type at preview (NONE, LIS,HASH)</t>
+  </si>
+  <si>
     <t>PVSEARCHTYPE</t>
   </si>
   <si>
+    <t>Shutdown job when no more calls remain</t>
+  </si>
+  <si>
     <t>JOBEND</t>
   </si>
   <si>
+    <t>Make alternative phone lowest priority in selecting next record</t>
+  </si>
+  <si>
     <t>LOWALTQPRIO</t>
   </si>
   <si>
+    <t>VDN needed by the CTI dialer only</t>
+  </si>
+  <si>
     <t>MAKE_CALL_VDN</t>
   </si>
   <si>
+    <t>Order calling of records by time zone</t>
+  </si>
+  <si>
     <t>ORDERZONES</t>
   </si>
   <si>
+    <t>Automatically start Update mode on customer hang up</t>
+  </si>
+  <si>
     <t>AUTORELEASE</t>
   </si>
   <si>
+    <t>Record update programm name</t>
+  </si>
+  <si>
     <t>POSTUPDATE</t>
   </si>
   <si>
+    <t>Quota settings file name</t>
+  </si>
+  <si>
     <t>QUOTA_EXTFILE</t>
   </si>
   <si>
+    <t>Save quota setting when the job ends</t>
+  </si>
+  <si>
     <t>QUOTA_SAVE</t>
   </si>
   <si>
+    <t>Quota setting (completion code, quota)</t>
+  </si>
+  <si>
     <t>QUOTAVAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Auto assign recall from Infinite job to agents on another job </t>
+  </si>
+  <si>
     <t>INF_ESC_RECALL</t>
   </si>
   <si>
+    <t xml:space="preserve">Name of the job to get agent for recall </t>
+  </si>
+  <si>
     <t>INF_RECALL_GETOP_JOB</t>
   </si>
   <si>
+    <t>CPA enabled for AOR call</t>
+  </si>
+  <si>
     <t>RECALL_CPA</t>
   </si>
   <si>
+    <t xml:space="preserve">Recall reschedule interval </t>
+  </si>
+  <si>
     <t>RECALL_INTERVAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Recall notification time </t>
+  </si>
+  <si>
     <t>RECALL_NOTIFY</t>
   </si>
   <si>
+    <t>Number of recall attempts</t>
+  </si>
+  <si>
     <t>RECALL_NUMOFTRY</t>
   </si>
   <si>
+    <t xml:space="preserve">OFCOM timer </t>
+  </si>
+  <si>
     <t>OFCOMTIMER</t>
   </si>
   <si>
+    <t>OFCOM false positive rate</t>
+  </si>
+  <si>
     <t>OFCOMFR</t>
   </si>
   <si>
+    <t>Time to connect tolerance</t>
+  </si>
+  <si>
     <t>CONNTOLE</t>
   </si>
   <si>
+    <t xml:space="preserve">Desired service level </t>
+  </si>
+  <si>
     <t>SERVICELEVEL</t>
   </si>
   <si>
+    <t>Total wait delay (seconds)</t>
+  </si>
+  <si>
     <t>WAITLIMIT</t>
   </si>
   <si>
+    <t>The message during transfer of a call. Play this message when placing the customer on hold.</t>
+  </si>
+  <si>
     <t>XFERHOLDMSGNO</t>
   </si>
   <si>
+    <t>Select YES to add an automatic end of field indicator to the agent input</t>
+  </si>
+  <si>
     <t>AUTOEND</t>
   </si>
   <si>
+    <t>The method to use when the system identifies the called party as answering machine</t>
+  </si>
+  <si>
     <t>AUTOREL_AGTRDY_METHOD</t>
   </si>
   <si>
+    <t>The message to be played when the system detects the called party as an answering machine.</t>
+  </si>
+  <si>
     <t>AUTOREL_AGTRDY_MSG</t>
   </si>
   <si>
+    <t>The *.dat file to use when preprocessing and postprocessing the calling list</t>
+  </si>
+  <si>
     <t>DATASCRIPT</t>
   </si>
   <si>
+    <t>YES to not start a shadow job to recall records set by the agent to be agent-owned recall</t>
+  </si>
+  <si>
     <t>DISABLE_SHADOWJOB</t>
   </si>
   <si>
+    <t>Yes displays an empty record while previewing a record in a managed job</t>
+  </si>
+  <si>
     <t>DISPLAY</t>
   </si>
   <si>
+    <t>YES allows a test agent to complete work after each call</t>
+  </si>
+  <si>
     <t>DONE_TME</t>
   </si>
   <si>
+    <t>The value of this field establishes the *.edt file to associate with the job.</t>
+  </si>
+  <si>
     <t>EDTFILE</t>
   </si>
   <si>
+    <t>YES indicates that an expired call is recalled immediately.</t>
+  </si>
+  <si>
     <t>EXPIRED_RECALL</t>
   </si>
   <si>
+    <t>Message to the called party after the called party opts out to DNC.</t>
+  </si>
+  <si>
     <t>FCC_DNC_MSG</t>
   </si>
   <si>
+    <t>The digit that must be pressed by the called party to indicate for DNC opt-out.</t>
+  </si>
+  <si>
     <t>FCC_OPTOUT_DIGIT</t>
   </si>
   <si>
+    <t>The identification field.</t>
+  </si>
+  <si>
     <t>IDENT</t>
   </si>
   <si>
+    <t>Indicates the postprocessing calling list label for an outbound job</t>
+  </si>
+  <si>
     <t>OUTDATAPOST</t>
   </si>
   <si>
+    <t>This field establishes the pre-processing calling list label for an outbound job.</t>
+  </si>
+  <si>
     <t>OUTDATAPRE</t>
   </si>
   <si>
+    <t>Indicates the command to update jobs</t>
+  </si>
+  <si>
     <t>POST_TRANS</t>
   </si>
   <si>
+    <t>A toggle field used for testing. YES = Release distribution.</t>
+  </si>
+  <si>
     <t>REL_DIST</t>
   </si>
   <si>
+    <t>A toggle field used for testing. YES = Wait before releasing test call.</t>
+  </si>
+  <si>
     <t>REL_TME</t>
   </si>
   <si>
     <t>RUNOFCOM</t>
   </si>
   <si>
+    <t xml:space="preserve"> The default is usually NO, with no ability to edit on the Job Verification screen.</t>
+  </si>
+  <si>
     <t>SINGLEEDIT</t>
   </si>
   <si>
+    <t>Indicates the distribution of call completion code results required in test mode</t>
+  </si>
+  <si>
     <t>TESTMODE</t>
   </si>
   <si>
+    <t>Number of seconds agents are allowed for talk time (talktime) and update time (updtime)</t>
+  </si>
+  <si>
     <t>TESTOPER</t>
   </si>
   <si>
+    <t>Indicates the call completion code criteria the job has to meet to trigger campaign update</t>
+  </si>
+  <si>
     <t>TRANS_CRIT</t>
   </si>
   <si>
+    <t>Indicates the field name by which the calling is indexed for record search</t>
+  </si>
+  <si>
     <t>TRANS_MAP</t>
   </si>
   <si>
+    <t xml:space="preserve">The text message1 sent to agent screen. </t>
+  </si>
+  <si>
     <t>WAITMSG1</t>
   </si>
   <si>
+    <t xml:space="preserve">The text message2 sent to agent screen. </t>
+  </si>
+  <si>
     <t>WAITMSG2</t>
   </si>
   <si>
+    <t xml:space="preserve">The text message3 sent to agent screen. </t>
+  </si>
+  <si>
     <t>WAITMSG3</t>
   </si>
   <si>
+    <t xml:space="preserve">The text message4 sent to agent screen. </t>
+  </si>
+  <si>
     <t>WAITMSG4</t>
   </si>
   <si>
@@ -291,9 +552,6 @@
   </si>
   <si>
     <t>KL</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -403,13 +661,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,8 +695,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -444,813 +711,1082 @@
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="15" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="T1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="V1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
-        <v>87</v>
+      <c r="AT1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R2" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="T2" t="s">
-        <v>104</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="V2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AH2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AV2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BD2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BI2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BO2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BX2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CI2" t="s">
-        <v>124</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="CK2" t="s">
-        <v>126</v>
+      <c r="BM2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="R3" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="U3" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="W3" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="X3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="Y3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AA3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AC3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AD3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AE3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AG3" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="AH3" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="AI3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AJ3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AK3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AL3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AM3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AN3" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="AO3" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="AP3" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="AQ3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AR3" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="AS3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AT3" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="AU3" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AV3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AW3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AX3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AY3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BA3" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="BB3" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="BC3" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="BD3" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="BE3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BF3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BG3" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="BH3" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="BI3" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="BJ3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BK3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="BL3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BM3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BN3" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="BO3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="BP3" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="BQ3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BR3" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="BS3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="BT3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BU3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BV3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BW3" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="BX3" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="BY3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BZ3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="CA3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="CB3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="CC3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="CD3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="CE3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="CF3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="CG3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="CH3" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="CI3" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="CJ3" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="CK3" t="s">
-        <v>126</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" t="s">
+        <v>188</v>
+      </c>
+      <c r="S4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V4" t="s">
+        <v>192</v>
+      </c>
+      <c r="W4" t="s">
+        <v>190</v>
+      </c>
+      <c r="X4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>209</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -563,13 +563,13 @@
     <t>93</t>
   </si>
   <si>
-    <t>E</t>
+    <t>Expert Calling Ratio</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>W40</t>
+    <t>Agent WorkTime = 40</t>
   </si>
   <si>
     <t>100</t>
